--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H2">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I2">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J2">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N2">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q2">
-        <v>442.2540578750566</v>
+        <v>505.3411566848789</v>
       </c>
       <c r="R2">
-        <v>442.2540578750566</v>
+        <v>4548.070410163909</v>
       </c>
       <c r="S2">
-        <v>0.03454420697393523</v>
+        <v>0.03178098016256359</v>
       </c>
       <c r="T2">
-        <v>0.03454420697393523</v>
+        <v>0.0317809801625636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H3">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I3">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J3">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N3">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q3">
-        <v>77.35339704711637</v>
+        <v>81.24688669849355</v>
       </c>
       <c r="R3">
-        <v>77.35339704711637</v>
+        <v>731.2219802864419</v>
       </c>
       <c r="S3">
-        <v>0.006042028807087823</v>
+        <v>0.005109628733535011</v>
       </c>
       <c r="T3">
-        <v>0.006042028807087823</v>
+        <v>0.005109628733535012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H4">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I4">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J4">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N4">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q4">
-        <v>1.038950442361354</v>
+        <v>1.154786412810445</v>
       </c>
       <c r="R4">
-        <v>1.038950442361354</v>
+        <v>10.393077715294</v>
       </c>
       <c r="S4">
-        <v>8.115181416092636E-05</v>
+        <v>7.262468847438898E-05</v>
       </c>
       <c r="T4">
-        <v>8.115181416092636E-05</v>
+        <v>7.262468847438899E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H5">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I5">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J5">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N5">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q5">
-        <v>70.45372490819659</v>
+        <v>179.2766757998845</v>
       </c>
       <c r="R5">
-        <v>70.45372490819659</v>
+        <v>1613.49008219896</v>
       </c>
       <c r="S5">
-        <v>0.005503099433405345</v>
+        <v>0.01127473668399303</v>
       </c>
       <c r="T5">
-        <v>0.005503099433405345</v>
+        <v>0.01127473668399303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H6">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I6">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J6">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N6">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q6">
-        <v>8865.9855257543</v>
+        <v>9657.89712483171</v>
       </c>
       <c r="R6">
-        <v>8865.9855257543</v>
+        <v>86921.07412348538</v>
       </c>
       <c r="S6">
-        <v>0.692516967512135</v>
+        <v>0.6073865800876316</v>
       </c>
       <c r="T6">
-        <v>0.692516967512135</v>
+        <v>0.6073865800876317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H7">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I7">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J7">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N7">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q7">
-        <v>1550.724264425883</v>
+        <v>1552.761066592121</v>
       </c>
       <c r="R7">
-        <v>1550.724264425883</v>
+        <v>13974.84959932909</v>
       </c>
       <c r="S7">
-        <v>0.1211261694402928</v>
+        <v>0.09765337337314467</v>
       </c>
       <c r="T7">
-        <v>0.1211261694402928</v>
+        <v>0.09765337337314467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H8">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I8">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J8">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N8">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q8">
-        <v>20.82811772990928</v>
+        <v>22.06985959592323</v>
       </c>
       <c r="R8">
-        <v>20.82811772990928</v>
+        <v>198.628736363309</v>
       </c>
       <c r="S8">
-        <v>0.001626872149452935</v>
+        <v>0.001387976737556685</v>
       </c>
       <c r="T8">
-        <v>0.001626872149452935</v>
+        <v>0.001387976737556685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H9">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I9">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J9">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N9">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q9">
-        <v>1412.404689451186</v>
+        <v>3426.270884239062</v>
       </c>
       <c r="R9">
-        <v>1412.404689451186</v>
+        <v>30836.43795815156</v>
       </c>
       <c r="S9">
-        <v>0.110322107970669</v>
+        <v>0.2154786831888161</v>
       </c>
       <c r="T9">
-        <v>0.110322107970669</v>
+        <v>0.2154786831888161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.89637074824577</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H10">
-        <v>3.89637074824577</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I10">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="J10">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N10">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q10">
-        <v>270.478041792431</v>
+        <v>0.2373781682727778</v>
       </c>
       <c r="R10">
-        <v>270.478041792431</v>
+        <v>2.136403514455</v>
       </c>
       <c r="S10">
-        <v>0.02112688236819323</v>
+        <v>1.492874814787191E-05</v>
       </c>
       <c r="T10">
-        <v>0.02112688236819323</v>
+        <v>1.492874814787191E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.89637074824577</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H11">
-        <v>3.89637074824577</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I11">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="J11">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N11">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q11">
-        <v>47.30854355486173</v>
+        <v>0.03816478608011111</v>
       </c>
       <c r="R11">
-        <v>47.30854355486173</v>
+        <v>0.343483074721</v>
       </c>
       <c r="S11">
-        <v>0.003695242793354468</v>
+        <v>2.400189047093278E-06</v>
       </c>
       <c r="T11">
-        <v>0.003695242793354468</v>
+        <v>2.400189047093279E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.89637074824577</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H12">
-        <v>3.89637074824577</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I12">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="J12">
-        <v>0.02823739589886082</v>
+        <v>2.265922906154529E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N12">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q12">
-        <v>0.6354114250969054</v>
+        <v>0.000542447571888889</v>
       </c>
       <c r="R12">
-        <v>0.6354114250969054</v>
+        <v>0.004882028147000001</v>
       </c>
       <c r="S12">
-        <v>4.963161646863121E-05</v>
+        <v>3.411460810856102E-08</v>
       </c>
       <c r="T12">
-        <v>4.963161646863121E-05</v>
+        <v>3.411460810856103E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003140333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.009421000000000001</v>
+      </c>
+      <c r="I13">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="J13">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.81662666666667</v>
+      </c>
+      <c r="N13">
+        <v>80.44988000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="P13">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="Q13">
+        <v>0.0842131466088889</v>
+      </c>
+      <c r="R13">
+        <v>0.7579183194800001</v>
+      </c>
+      <c r="S13">
+        <v>5.296177258471538E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.29617725847154E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H14">
+        <v>12.403529</v>
+      </c>
+      <c r="I14">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J14">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>75.59011833333334</v>
+      </c>
+      <c r="N14">
+        <v>226.770355</v>
+      </c>
+      <c r="O14">
+        <v>0.6588374259037486</v>
+      </c>
+      <c r="P14">
+        <v>0.6588374259037486</v>
+      </c>
+      <c r="Q14">
+        <v>312.528074953644</v>
+      </c>
+      <c r="R14">
+        <v>2812.752674582795</v>
+      </c>
+      <c r="S14">
+        <v>0.01965493690540553</v>
+      </c>
+      <c r="T14">
+        <v>0.01965493690540554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H15">
+        <v>12.403529</v>
+      </c>
+      <c r="I15">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J15">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.15310033333333</v>
+      </c>
+      <c r="N15">
+        <v>36.459301</v>
+      </c>
+      <c r="O15">
+        <v>0.1059254505338229</v>
+      </c>
+      <c r="P15">
+        <v>0.1059254505338229</v>
+      </c>
+      <c r="Q15">
+        <v>50.24711080813656</v>
+      </c>
+      <c r="R15">
+        <v>452.223997273229</v>
+      </c>
+      <c r="S15">
+        <v>0.003160048238096152</v>
+      </c>
+      <c r="T15">
+        <v>0.003160048238096152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.89637074824577</v>
-      </c>
-      <c r="H13">
-        <v>3.89637074824577</v>
-      </c>
-      <c r="I13">
-        <v>0.02823739589886082</v>
-      </c>
-      <c r="J13">
-        <v>0.02823739589886082</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.0586947926819</v>
-      </c>
-      <c r="N13">
-        <v>11.0586947926819</v>
-      </c>
-      <c r="O13">
-        <v>0.1191908465249188</v>
-      </c>
-      <c r="P13">
-        <v>0.1191908465249188</v>
-      </c>
-      <c r="Q13">
-        <v>43.08877490398357</v>
-      </c>
-      <c r="R13">
-        <v>43.08877490398357</v>
-      </c>
-      <c r="S13">
-        <v>0.003365639120844491</v>
-      </c>
-      <c r="T13">
-        <v>0.003365639120844491</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H16">
+        <v>12.403529</v>
+      </c>
+      <c r="I16">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J16">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1727356666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.5182070000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.001505550255743542</v>
+      </c>
+      <c r="P16">
+        <v>0.001505550255743542</v>
+      </c>
+      <c r="Q16">
+        <v>0.7141772836114447</v>
+      </c>
+      <c r="R16">
+        <v>6.427595552503002</v>
+      </c>
+      <c r="S16">
+        <v>4.49147151043596E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.49147151043596E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H17">
+        <v>12.403529</v>
+      </c>
+      <c r="I17">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J17">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.81662666666667</v>
+      </c>
+      <c r="N17">
+        <v>80.44988000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="P17">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="Q17">
+        <v>110.8736021807245</v>
+      </c>
+      <c r="R17">
+        <v>997.8624196265201</v>
+      </c>
+      <c r="S17">
+        <v>0.006972857256617368</v>
+      </c>
+      <c r="T17">
+        <v>0.00697285725661737</v>
       </c>
     </row>
   </sheetData>
